--- a/BackTest/2020-01-15 BackTest FCT.xlsx
+++ b/BackTest/2020-01-15 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1523441.289</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1527591.289</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1527577.289</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1527577.289</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1524902.4393</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1580655.4393</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1602717.6741</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1602579.4849</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1602627.4849</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1602571.5721</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1593794.6448</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1593794.6448</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1563723.3702</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1503609.6206</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1493966.499</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1499966.499</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1496553.5255</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1493970.9723</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -4444,11 +4444,17 @@
         <v>511453.7798159311</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>32.29</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4483,17 @@
         <v>528005.6533159311</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>31.86</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4522,17 @@
         <v>591523.2489159311</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>32.22</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4561,17 @@
         <v>592027.1433159311</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>32.44</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4600,17 @@
         <v>592047.1433159311</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>32.88</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4639,17 @@
         <v>546743.9747159311</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>32.9</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4678,17 @@
         <v>526007.5043159311</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>32.43</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4717,17 @@
         <v>504006.1843159311</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>32.3</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4756,17 @@
         <v>511798.2598159311</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>32.29</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4795,17 @@
         <v>463826.0250159311</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4834,17 @@
         <v>477209.4676159311</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>32.29</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4873,17 @@
         <v>408248.7436159311</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>32.33</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4912,17 @@
         <v>408287.1672159311</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>32.3</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4951,17 @@
         <v>314833.1405159311</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>32.48</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4990,17 @@
         <v>314901.3153159311</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>32.29</v>
+      </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5029,17 @@
         <v>320638.6348159311</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>32.49</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5068,17 @@
         <v>308149.6401159311</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>32.63</v>
+      </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5107,17 @@
         <v>308149.6401159311</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>32.49</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5146,17 @@
         <v>308149.6401159311</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>32.49</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5185,17 @@
         <v>318020.4021159311</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>32.49</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5224,17 @@
         <v>318020.4021159311</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>32.63</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5263,17 @@
         <v>315019.7125159311</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>32.63</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5302,17 @@
         <v>299807.9827159311</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>32.5</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5341,17 @@
         <v>277605.3915159311</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>32.39</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5380,17 @@
         <v>277605.3915159311</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>32.36</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5419,17 @@
         <v>272999.8858159311</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>32.36</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5458,17 @@
         <v>265176.5588159311</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>32.31</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5497,17 @@
         <v>261336.9808159311</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>32.27</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5536,17 @@
         <v>258821.2353159311</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>32.25</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,15 +5575,17 @@
         <v>258821.2353159311</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>32.11</v>
       </c>
-      <c r="J152" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,17 +5614,15 @@
         <v>235898.9149159311</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>32.11</v>
       </c>
-      <c r="J153" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5479,14 +5653,12 @@
         <v>235898.9149159311</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>32.01</v>
       </c>
-      <c r="J154" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5520,12 +5692,12 @@
         <v>235898.9149159311</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5559,12 +5731,12 @@
         <v>288954.6212159311</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5598,12 +5770,12 @@
         <v>311124.6212159311</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5637,12 +5809,12 @@
         <v>311056.6212159311</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5679,9 +5851,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5718,9 +5888,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5757,9 +5925,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5796,9 +5962,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5832,12 +5996,12 @@
         <v>537872.9393159311</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,12 +6035,12 @@
         <v>537810.5952159311</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,12 +6074,12 @@
         <v>534017.3935159311</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5949,14 +6113,12 @@
         <v>508148.7869159311</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>31.96</v>
       </c>
-      <c r="J166" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5990,14 +6152,12 @@
         <v>512013.3652159311</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>31.53</v>
       </c>
-      <c r="J167" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6031,14 +6191,12 @@
         <v>575477.186715931</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>31.71</v>
       </c>
-      <c r="J168" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6072,14 +6230,12 @@
         <v>584503.317415931</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>31.85</v>
       </c>
-      <c r="J169" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6113,14 +6269,12 @@
         <v>596091.852315931</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>32.08</v>
       </c>
-      <c r="J170" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6154,14 +6308,12 @@
         <v>596091.852315931</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>32.44</v>
       </c>
-      <c r="J171" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6195,12 +6347,12 @@
         <v>626989.3328159309</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,14 +6386,12 @@
         <v>625846.1081159309</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>32.5</v>
       </c>
-      <c r="J173" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6275,12 +6425,12 @@
         <v>626893.978215931</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6314,14 +6464,12 @@
         <v>663784.2348159309</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>32.24</v>
       </c>
-      <c r="J175" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6355,14 +6503,12 @@
         <v>663784.2348159309</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>32.58</v>
       </c>
-      <c r="J176" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6396,14 +6542,12 @@
         <v>666767.656815931</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>32.58</v>
       </c>
-      <c r="J177" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6437,14 +6581,12 @@
         <v>667625.519515931</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>32.76</v>
       </c>
-      <c r="J178" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,14 +6620,12 @@
         <v>676461.603215931</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>32.93</v>
       </c>
-      <c r="J179" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6519,14 +6659,10 @@
         <v>674325.769615931</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="J180" t="n">
-        <v>32.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6563,9 +6699,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6599,14 +6733,10 @@
         <v>636530.668515931</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>32.97</v>
-      </c>
-      <c r="J182" t="n">
-        <v>32.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6642,10 +6772,10 @@
       <c r="H183" t="n">
         <v>1</v>
       </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="I183" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6681,10 +6811,10 @@
       <c r="H184" t="n">
         <v>1</v>
       </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="I184" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6718,12 +6848,12 @@
         <v>613007.0031159311</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6757,12 +6887,10 @@
         <v>518850.6077159311</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6796,12 +6924,10 @@
         <v>455015.7642159311</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6835,12 +6961,10 @@
         <v>454714.6493159311</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6874,12 +6998,12 @@
         <v>454412.6027159311</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6913,12 +7037,12 @@
         <v>454412.6027159311</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6952,14 +7076,12 @@
         <v>454444.2522159311</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>32.72</v>
       </c>
-      <c r="J191" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6993,12 +7115,12 @@
         <v>396505.4246159311</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7032,14 +7154,12 @@
         <v>396444.131315931</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>32.7</v>
       </c>
-      <c r="J193" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7073,14 +7193,12 @@
         <v>396444.131315931</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>32.63</v>
       </c>
-      <c r="J194" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7114,14 +7232,12 @@
         <v>396444.131315931</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>32.63</v>
       </c>
-      <c r="J195" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7155,14 +7271,12 @@
         <v>368213.9564846427</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>32.63</v>
       </c>
-      <c r="J196" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7196,14 +7310,12 @@
         <v>337771.8576813288</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>32.6</v>
       </c>
-      <c r="J197" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7237,14 +7349,12 @@
         <v>360838.3727467266</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>32.59</v>
       </c>
-      <c r="J198" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7280,10 +7390,10 @@
       <c r="H199" t="n">
         <v>1</v>
       </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="I199" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7319,10 +7429,10 @@
       <c r="H200" t="n">
         <v>1</v>
       </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="I200" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7356,12 +7466,12 @@
         <v>370811.4055966501</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7397,10 +7507,10 @@
       <c r="H202" t="n">
         <v>1</v>
       </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="I202" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7436,10 +7546,10 @@
       <c r="H203" t="n">
         <v>1</v>
       </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="I203" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7473,12 +7583,12 @@
         <v>372788.3716467266</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7512,14 +7622,12 @@
         <v>372788.3716467266</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>32.7</v>
       </c>
-      <c r="J205" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7553,12 +7661,10 @@
         <v>382856.1682467266</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7592,12 +7698,10 @@
         <v>393256.1682467266</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7631,12 +7735,10 @@
         <v>373255.4697467266</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7670,12 +7772,10 @@
         <v>373287.3126467266</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7709,12 +7809,10 @@
         <v>363287.3126467266</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7748,12 +7846,10 @@
         <v>353287.3126467266</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7790,9 +7886,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7826,12 +7920,12 @@
         <v>315548.6075100087</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,12 +7959,12 @@
         <v>249578.8772100087</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>32.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7904,14 +7998,12 @@
         <v>251253.7902100087</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>32.4</v>
       </c>
-      <c r="J215" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7945,14 +8037,12 @@
         <v>251253.7902100087</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>32.49</v>
       </c>
-      <c r="J216" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7986,14 +8076,12 @@
         <v>301238.1926100088</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>32.49</v>
       </c>
-      <c r="J217" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8027,14 +8115,12 @@
         <v>301178.1926100088</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>32.75</v>
       </c>
-      <c r="J218" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8068,14 +8154,12 @@
         <v>301178.1926100088</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>32.6</v>
       </c>
-      <c r="J219" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8109,14 +8193,12 @@
         <v>301313.4739100087</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>32.6</v>
       </c>
-      <c r="J220" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8150,14 +8232,12 @@
         <v>301313.4739100087</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>32.87</v>
       </c>
-      <c r="J221" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8191,14 +8271,12 @@
         <v>301313.4739100087</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>32.87</v>
       </c>
-      <c r="J222" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8232,14 +8310,12 @@
         <v>285313.4739100087</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>32.87</v>
       </c>
-      <c r="J223" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8273,14 +8349,12 @@
         <v>285313.4739100087</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>32.6</v>
       </c>
-      <c r="J224" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,14 +8388,12 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>32.6</v>
       </c>
-      <c r="J225" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8355,14 +8427,12 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>32.7</v>
       </c>
-      <c r="J226" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8396,14 +8466,12 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>32.7</v>
       </c>
-      <c r="J227" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8437,14 +8505,12 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>32.7</v>
       </c>
-      <c r="J228" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8478,14 +8544,12 @@
         <v>286977.5903100087</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>32.7</v>
       </c>
-      <c r="J229" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8519,14 +8583,12 @@
         <v>280472.4679100087</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>32.75</v>
       </c>
-      <c r="J230" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8560,14 +8622,12 @@
         <v>280478.2645100087</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>32.71</v>
       </c>
-      <c r="J231" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8604,9 +8664,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8643,9 +8701,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8682,9 +8738,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8721,9 +8775,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8760,9 +8812,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8799,9 +8849,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8838,9 +8886,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8877,9 +8923,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8916,9 +8960,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8952,14 +8994,10 @@
         <v>525941.3317094075</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>33.01</v>
-      </c>
-      <c r="J241" t="n">
-        <v>32.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8993,14 +9031,10 @@
         <v>541937.2113094075</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>32.99</v>
-      </c>
-      <c r="J242" t="n">
-        <v>32.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9034,14 +9068,10 @@
         <v>544785.5769094075</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>33</v>
-      </c>
-      <c r="J243" t="n">
-        <v>32.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9075,14 +9105,10 @@
         <v>592285.5769094075</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>33.17</v>
-      </c>
-      <c r="J244" t="n">
-        <v>32.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,14 +9142,10 @@
         <v>592218.5854094075</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="J245" t="n">
-        <v>32.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9157,14 +9179,10 @@
         <v>592285.5854094075</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="J246" t="n">
-        <v>32.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9198,14 +9216,10 @@
         <v>581269.5854094075</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="J247" t="n">
-        <v>32.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9239,14 +9253,10 @@
         <v>851269.5854094075</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J248" t="n">
-        <v>32.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9283,9 +9293,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9322,9 +9330,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9361,9 +9367,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9400,9 +9404,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9436,23 +9438,19 @@
         <v>848310.9233094075</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>32.11</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L253" t="n">
-        <v>1.05168016194332</v>
-      </c>
-      <c r="M253" t="n">
-        <v>1.137476459510358</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9477,11 +9475,15 @@
         <v>849620.4440094075</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9510,11 +9512,15 @@
         <v>824273.1514094075</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9547,7 +9553,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9580,7 +9590,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9613,7 +9627,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9646,7 +9664,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9675,11 +9697,15 @@
         <v>827213.6250094075</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9708,11 +9734,15 @@
         <v>807038.0239094076</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9745,7 +9775,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9778,7 +9812,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9811,7 +9849,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9844,7 +9886,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9877,7 +9923,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9910,7 +9960,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +9997,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9976,7 +10034,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10009,7 +10071,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10042,7 +10108,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10075,7 +10145,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10108,7 +10182,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10141,7 +10219,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10174,7 +10256,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10207,7 +10293,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10240,7 +10330,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10273,7 +10367,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10306,7 +10404,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10339,7 +10441,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10372,7 +10478,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10405,7 +10515,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10438,7 +10552,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10471,7 +10589,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10504,7 +10626,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10537,7 +10663,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10570,7 +10700,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10603,7 +10737,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10636,7 +10774,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10669,7 +10811,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10702,7 +10848,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10735,7 +10885,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10768,7 +10922,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10801,7 +10959,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10834,7 +10996,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10867,7 +11033,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10900,7 +11070,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10933,7 +11107,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10966,7 +11144,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10999,7 +11181,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11032,7 +11218,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11065,7 +11255,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11098,7 +11292,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11131,7 +11329,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11164,7 +11366,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11197,7 +11403,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11230,7 +11440,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11263,7 +11477,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11296,7 +11514,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11329,7 +11551,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11362,7 +11588,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11395,7 +11625,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11424,11 +11658,15 @@
         <v>325611.4535006646</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11457,11 +11695,15 @@
         <v>324375.9434006646</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11490,11 +11732,15 @@
         <v>282283.7110006646</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11527,7 +11773,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11560,7 +11810,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11593,7 +11847,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11626,7 +11884,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11659,7 +11921,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11692,7 +11958,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11725,7 +11995,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11754,11 +12028,17 @@
         <v>-412208.3972993354</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11787,11 +12067,17 @@
         <v>-403107.1498993354</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>32.23</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11820,11 +12106,17 @@
         <v>-403107.1498993354</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>32.62</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11853,11 +12145,17 @@
         <v>-403107.1498993354</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>32.62</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11886,11 +12184,17 @@
         <v>-403107.1498993354</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>32.62</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11919,11 +12223,17 @@
         <v>-403107.1498993354</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>32.62</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11952,11 +12262,17 @@
         <v>-410459.6522993354</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>32.62</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11985,11 +12301,17 @@
         <v>-410443.6522993354</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>32.22</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12018,11 +12340,17 @@
         <v>-334823.5334993354</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>32.49</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12051,11 +12379,17 @@
         <v>-2336337.040999335</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>32.62</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12084,11 +12418,17 @@
         <v>-329135.0504993352</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>32.01</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12121,7 +12461,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12154,7 +12498,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12187,7 +12535,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12216,11 +12568,17 @@
         <v>9508183.34447458</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>32.07</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12253,7 +12611,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12286,7 +12648,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12319,7 +12685,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12352,7 +12722,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12385,7 +12759,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12418,7 +12796,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12451,7 +12833,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12484,7 +12870,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12517,7 +12907,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12550,7 +12944,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12583,7 +12981,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12616,7 +13018,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12649,7 +13055,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12682,7 +13092,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12715,7 +13129,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12748,7 +13166,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12781,7 +13203,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12814,7 +13240,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12847,7 +13277,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12880,7 +13314,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12913,7 +13351,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12946,7 +13388,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12979,7 +13425,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13012,7 +13462,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13045,7 +13499,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13078,7 +13536,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13111,7 +13573,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13144,7 +13610,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13177,7 +13647,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13210,7 +13684,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13243,7 +13721,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13276,7 +13758,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13309,7 +13795,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13342,7 +13832,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13375,7 +13869,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13404,15 +13902,15 @@
         <v>10945363.6037047</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="J373" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K373" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13444,12 +13942,10 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L374" t="n">
@@ -13483,12 +13979,10 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L375" t="n">
@@ -13523,7 +14017,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +14054,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +14091,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +14128,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +14165,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +14198,15 @@
         <v>11079913.1823047</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +14235,15 @@
         <v>11079913.1823047</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +14276,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +14313,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +14350,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +14387,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +14424,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +14461,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +14498,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14535,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14572,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14609,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14080,14 +14642,16 @@
         <v>11115089.3029047</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="inlineStr"/>
     </row>
     <row r="394">
@@ -14179,7 +14743,7 @@
         <v>11189642.3765047</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14212,7 +14776,7 @@
         <v>11172135.8298047</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14245,7 +14809,7 @@
         <v>11174761.9532047</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14278,7 +14842,7 @@
         <v>11174761.9532047</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14311,7 +14875,7 @@
         <v>11176131.4435047</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14344,7 +14908,7 @@
         <v>11170606.7434047</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14377,7 +14941,7 @@
         <v>11147567.9141047</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14410,7 +14974,7 @@
         <v>11147567.9141047</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14443,7 +15007,7 @@
         <v>11147582.9141047</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14476,7 +15040,7 @@
         <v>11147582.9141047</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14509,7 +15073,7 @@
         <v>11147582.9141047</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14542,7 +15106,7 @@
         <v>11147582.9141047</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14575,7 +15139,7 @@
         <v>11234151.5967047</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14608,7 +15172,7 @@
         <v>11234151.5967047</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14641,7 +15205,7 @@
         <v>11183594.7162047</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14674,7 +15238,7 @@
         <v>11183594.7162047</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14707,7 +15271,7 @@
         <v>11183523.61030854</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14740,7 +15304,7 @@
         <v>11183523.61030854</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14773,7 +15337,7 @@
         <v>11183523.61030854</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14806,7 +15370,7 @@
         <v>11183523.61030854</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14839,7 +15403,7 @@
         <v>11178200.34420854</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14872,7 +15436,7 @@
         <v>11109515.65100854</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14905,7 +15469,7 @@
         <v>11109515.65100854</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14938,7 +15502,7 @@
         <v>11151908.09330854</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14971,7 +15535,7 @@
         <v>11218312.52920854</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15004,7 +15568,7 @@
         <v>11186062.32590855</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15037,7 +15601,7 @@
         <v>11186062.32590855</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15070,7 +15634,7 @@
         <v>11186062.32590855</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15103,7 +15667,7 @@
         <v>11186062.32590855</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15136,7 +15700,7 @@
         <v>11186062.32590855</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15169,7 +15733,7 @@
         <v>11175302.04860855</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15202,7 +15766,7 @@
         <v>11174382.04860855</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15235,7 +15799,7 @@
         <v>11174382.04860855</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15268,7 +15832,7 @@
         <v>11141286.87120854</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15301,7 +15865,7 @@
         <v>11141286.87120854</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15334,7 +15898,7 @@
         <v>11141295.87120854</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15367,7 +15931,7 @@
         <v>11140657.04755634</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15400,7 +15964,7 @@
         <v>11091547.13615634</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15433,7 +15997,7 @@
         <v>11091547.13615634</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15466,7 +16030,7 @@
         <v>11102299.91345634</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15499,7 +16063,7 @@
         <v>11099340.50175635</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15532,7 +16096,7 @@
         <v>11101463.38675635</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15565,7 +16129,7 @@
         <v>11101463.38675635</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15598,7 +16162,7 @@
         <v>11101417.40905635</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15631,7 +16195,7 @@
         <v>11101417.40905635</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15664,7 +16228,7 @@
         <v>11099010.96685635</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15697,7 +16261,7 @@
         <v>11059625.01805635</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15730,7 +16294,7 @@
         <v>10967432.90345635</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15763,7 +16327,7 @@
         <v>10946382.40175634</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15796,7 +16360,7 @@
         <v>10964556.05325634</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15829,7 +16393,7 @@
         <v>10963708.65845634</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15862,7 +16426,7 @@
         <v>10963723.65845634</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15895,7 +16459,7 @@
         <v>10962316.20075634</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15928,7 +16492,7 @@
         <v>10938940.37165635</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15961,7 +16525,7 @@
         <v>10938956.37165635</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15994,7 +16558,7 @@
         <v>10916606.22305634</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16027,7 +16591,7 @@
         <v>10916645.22305634</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16060,7 +16624,7 @@
         <v>11106645.22305634</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16093,7 +16657,7 @@
         <v>11105345.22305634</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16126,7 +16690,7 @@
         <v>11105361.22305634</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16159,7 +16723,7 @@
         <v>11106899.59095635</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16192,7 +16756,7 @@
         <v>11195660.22315635</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16225,7 +16789,7 @@
         <v>11207373.96775635</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16258,7 +16822,7 @@
         <v>11204630.34905635</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16291,7 +16855,7 @@
         <v>11104851.67705635</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16324,7 +16888,7 @@
         <v>11101851.67705635</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16357,7 +16921,7 @@
         <v>11101885.67705635</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16390,7 +16954,7 @@
         <v>11101851.67705635</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16423,7 +16987,7 @@
         <v>11119752.89075635</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16687,7 +17251,7 @@
         <v>16061343.32015635</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16786,7 +17350,7 @@
         <v>16109677.77215635</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16819,7 +17383,7 @@
         <v>16129677.77215635</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16852,7 +17416,7 @@
         <v>16069677.77215635</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16885,7 +17449,7 @@
         <v>16069692.77215635</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16918,7 +17482,7 @@
         <v>16069692.77215635</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16951,7 +17515,7 @@
         <v>15986921.31615635</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16984,7 +17548,7 @@
         <v>16037768.04112072</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17017,7 +17581,7 @@
         <v>16017095.56442072</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17050,7 +17614,7 @@
         <v>16092176.33782072</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17083,7 +17647,7 @@
         <v>16092176.33782072</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17116,7 +17680,7 @@
         <v>16068712.01052072</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17149,7 +17713,7 @@
         <v>16068712.01052072</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17182,7 +17746,7 @@
         <v>16486812.01052072</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17215,7 +17779,7 @@
         <v>16426584.82852072</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17248,7 +17812,7 @@
         <v>16427351.82852072</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17281,7 +17845,7 @@
         <v>16426077.66292072</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17314,7 +17878,7 @@
         <v>16409521.87582072</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17347,7 +17911,7 @@
         <v>16409537.79812072</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17380,7 +17944,7 @@
         <v>13559537.79812072</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17413,7 +17977,7 @@
         <v>17175851.17492072</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17446,7 +18010,7 @@
         <v>12668800.00122071</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17479,7 +18043,7 @@
         <v>12664809.06672071</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17512,7 +18076,7 @@
         <v>12636503.42212071</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17545,7 +18109,7 @@
         <v>12639659.47762072</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17578,7 +18142,7 @@
         <v>12617196.25152072</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17611,7 +18175,7 @@
         <v>12623291.71752072</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17644,7 +18208,7 @@
         <v>12623291.71752072</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17655,6 +18219,6 @@
       <c r="M501" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest FCT.xlsx
+++ b/BackTest/2020-01-15 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1523441.289</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1527591.289</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1527577.289</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1527577.289</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1524902.4393</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1580655.4393</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1602717.6741</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1602579.4849</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1602627.4849</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1602571.5721</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1593794.6448</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1593794.6448</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1563723.3702</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1503609.6206</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1493966.499</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1499966.499</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1496553.5255</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1493970.9723</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -4444,875 +4444,781 @@
         <v>511453.7798159311</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="D124" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="E124" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="F124" t="n">
+        <v>16551.8735</v>
+      </c>
+      <c r="G124" t="n">
+        <v>528005.6533159311</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="C125" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="D125" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="E125" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="F125" t="n">
+        <v>63517.5956</v>
+      </c>
+      <c r="G125" t="n">
+        <v>591523.2489159311</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>32.52</v>
+      </c>
+      <c r="C126" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="D126" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="E126" t="n">
+        <v>32.52</v>
+      </c>
+      <c r="F126" t="n">
+        <v>503.8944</v>
+      </c>
+      <c r="G126" t="n">
+        <v>592027.1433159311</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>20</v>
+      </c>
+      <c r="G127" t="n">
+        <v>592047.1433159311</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="C128" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="D128" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="E128" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="F128" t="n">
+        <v>45303.1686</v>
+      </c>
+      <c r="G128" t="n">
+        <v>546743.9747159311</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="C129" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="E129" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>20736.4704</v>
+      </c>
+      <c r="G129" t="n">
+        <v>526007.5043159311</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
         <v>32.29</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
+      <c r="C130" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="D130" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="E130" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="F130" t="n">
+        <v>22001.32</v>
+      </c>
+      <c r="G130" t="n">
+        <v>504006.1843159311</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7792.0755</v>
+      </c>
+      <c r="G131" t="n">
+        <v>511798.2598159311</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C132" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="D132" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="E132" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="F132" t="n">
+        <v>47972.2348</v>
+      </c>
+      <c r="G132" t="n">
+        <v>463826.0250159311</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="C133" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="D133" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="E133" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="F133" t="n">
+        <v>13383.4426</v>
+      </c>
+      <c r="G133" t="n">
+        <v>477209.4676159311</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="C134" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="E134" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>68960.724</v>
+      </c>
+      <c r="G134" t="n">
+        <v>408248.7436159311</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="C135" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="D135" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="E135" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="F135" t="n">
+        <v>38.4236</v>
+      </c>
+      <c r="G135" t="n">
+        <v>408287.1672159311</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="C136" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="D136" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="E136" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="F136" t="n">
+        <v>93454.0267</v>
+      </c>
+      <c r="G136" t="n">
+        <v>314833.1405159311</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="C137" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="D137" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="E137" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="F137" t="n">
+        <v>68.1748</v>
+      </c>
+      <c r="G137" t="n">
+        <v>314901.3153159311</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="C138" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="D138" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="E138" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5737.3195</v>
+      </c>
+      <c r="G138" t="n">
+        <v>320638.6348159311</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="J138" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="C139" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="D139" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="E139" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="F139" t="n">
+        <v>12488.9947</v>
+      </c>
+      <c r="G139" t="n">
+        <v>308149.6401159311</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="J139" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="C140" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="D140" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="E140" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="F140" t="n">
+        <v>61123.9292</v>
+      </c>
+      <c r="G140" t="n">
+        <v>308149.6401159311</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="C141" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="D141" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="E141" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="F141" t="n">
+        <v>19841.1028</v>
+      </c>
+      <c r="G141" t="n">
+        <v>308149.6401159311</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="C142" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="D142" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="E142" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9870.762000000001</v>
+      </c>
+      <c r="G142" t="n">
+        <v>318020.4021159311</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="J142" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="C143" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="D143" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="E143" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20691.7701</v>
+      </c>
+      <c r="G143" t="n">
+        <v>318020.4021159311</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="J143" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="C144" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="E144" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3000.6896</v>
+      </c>
+      <c r="G144" t="n">
+        <v>315019.7125159311</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="C145" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="D145" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="E145" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15211.7298</v>
+      </c>
+      <c r="G145" t="n">
+        <v>299807.9827159311</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="J145" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="C124" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="D124" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="E124" t="n">
-        <v>31.88</v>
-      </c>
-      <c r="F124" t="n">
-        <v>16551.8735</v>
-      </c>
-      <c r="G124" t="n">
-        <v>528005.6533159311</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>31.86</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="C125" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="D125" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="E125" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="F125" t="n">
-        <v>63517.5956</v>
-      </c>
-      <c r="G125" t="n">
-        <v>591523.2489159311</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>32.52</v>
-      </c>
-      <c r="C126" t="n">
-        <v>32.88</v>
-      </c>
-      <c r="D126" t="n">
-        <v>32.88</v>
-      </c>
-      <c r="E126" t="n">
-        <v>32.52</v>
-      </c>
-      <c r="F126" t="n">
-        <v>503.8944</v>
-      </c>
-      <c r="G126" t="n">
-        <v>592027.1433159311</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C127" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D127" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E127" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F127" t="n">
-        <v>20</v>
-      </c>
-      <c r="G127" t="n">
-        <v>592047.1433159311</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>32.88</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="C128" t="n">
-        <v>32.43</v>
-      </c>
-      <c r="D128" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="E128" t="n">
-        <v>32.43</v>
-      </c>
-      <c r="F128" t="n">
-        <v>45303.1686</v>
-      </c>
-      <c r="G128" t="n">
-        <v>546743.9747159311</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="C129" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="E129" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>20736.4704</v>
-      </c>
-      <c r="G129" t="n">
-        <v>526007.5043159311</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>32.43</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="C130" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="D130" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="E130" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="F130" t="n">
-        <v>22001.32</v>
-      </c>
-      <c r="G130" t="n">
-        <v>504006.1843159311</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C131" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D131" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E131" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F131" t="n">
-        <v>7792.0755</v>
-      </c>
-      <c r="G131" t="n">
-        <v>511798.2598159311</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>32.45</v>
-      </c>
-      <c r="C132" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="D132" t="n">
-        <v>32.45</v>
-      </c>
-      <c r="E132" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="F132" t="n">
-        <v>47972.2348</v>
-      </c>
-      <c r="G132" t="n">
-        <v>463826.0250159311</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>32.33</v>
-      </c>
-      <c r="C133" t="n">
-        <v>32.33</v>
-      </c>
-      <c r="D133" t="n">
-        <v>32.33</v>
-      </c>
-      <c r="E133" t="n">
-        <v>32.33</v>
-      </c>
-      <c r="F133" t="n">
-        <v>13383.4426</v>
-      </c>
-      <c r="G133" t="n">
-        <v>477209.4676159311</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>32.33</v>
-      </c>
-      <c r="C134" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D134" t="n">
-        <v>32.33</v>
-      </c>
-      <c r="E134" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F134" t="n">
-        <v>68960.724</v>
-      </c>
-      <c r="G134" t="n">
-        <v>408248.7436159311</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>32.33</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="C135" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="D135" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="E135" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="F135" t="n">
-        <v>38.4236</v>
-      </c>
-      <c r="G135" t="n">
-        <v>408287.1672159311</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="C136" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="D136" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="E136" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="F136" t="n">
-        <v>93454.0267</v>
-      </c>
-      <c r="G136" t="n">
-        <v>314833.1405159311</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="C137" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="D137" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="E137" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="F137" t="n">
-        <v>68.1748</v>
-      </c>
-      <c r="G137" t="n">
-        <v>314901.3153159311</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="C138" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="D138" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="E138" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="F138" t="n">
-        <v>5737.3195</v>
-      </c>
-      <c r="G138" t="n">
-        <v>320638.6348159311</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="C139" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="D139" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="E139" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="F139" t="n">
-        <v>12488.9947</v>
-      </c>
-      <c r="G139" t="n">
-        <v>308149.6401159311</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="C140" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="D140" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="E140" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="F140" t="n">
-        <v>61123.9292</v>
-      </c>
-      <c r="G140" t="n">
-        <v>308149.6401159311</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="C141" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="D141" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="E141" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="F141" t="n">
-        <v>19841.1028</v>
-      </c>
-      <c r="G141" t="n">
-        <v>308149.6401159311</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="C142" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="D142" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="E142" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="F142" t="n">
-        <v>9870.762000000001</v>
-      </c>
-      <c r="G142" t="n">
-        <v>318020.4021159311</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="C143" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="D143" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="E143" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="F143" t="n">
-        <v>20691.7701</v>
-      </c>
-      <c r="G143" t="n">
-        <v>318020.4021159311</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>32.51</v>
-      </c>
-      <c r="C144" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>32.51</v>
-      </c>
-      <c r="E144" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3000.6896</v>
-      </c>
-      <c r="G144" t="n">
-        <v>315019.7125159311</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="C145" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="D145" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="E145" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="F145" t="n">
-        <v>15211.7298</v>
-      </c>
-      <c r="G145" t="n">
-        <v>299807.9827159311</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5346,7 +5252,9 @@
       <c r="I146" t="n">
         <v>32.39</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,7 +5293,9 @@
       <c r="I147" t="n">
         <v>32.36</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5424,7 +5334,9 @@
       <c r="I148" t="n">
         <v>32.36</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5463,7 +5375,9 @@
       <c r="I149" t="n">
         <v>32.31</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,7 +5416,9 @@
       <c r="I150" t="n">
         <v>32.27</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,7 +5457,9 @@
       <c r="I151" t="n">
         <v>32.25</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,7 +5498,9 @@
       <c r="I152" t="n">
         <v>32.11</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,7 +5539,9 @@
       <c r="I153" t="n">
         <v>32.11</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,7 +5580,9 @@
       <c r="I154" t="n">
         <v>32.01</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,7 +5621,9 @@
       <c r="I155" t="n">
         <v>32.01</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5736,7 +5662,9 @@
       <c r="I156" t="n">
         <v>32.01</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,7 +5703,9 @@
       <c r="I157" t="n">
         <v>32.3</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5809,12 +5739,12 @@
         <v>311056.6212159311</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,7 +5781,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5888,7 +5820,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5925,7 +5859,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5962,7 +5898,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5996,12 +5934,12 @@
         <v>537872.9393159311</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6035,12 +5973,12 @@
         <v>537810.5952159311</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>32.26</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6074,12 +6012,12 @@
         <v>534017.3935159311</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6113,12 +6051,12 @@
         <v>508148.7869159311</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6152,12 +6090,12 @@
         <v>512013.3652159311</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>31.53</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6191,12 +6129,12 @@
         <v>575477.186715931</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>31.71</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6230,12 +6168,12 @@
         <v>584503.317415931</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>31.85</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6269,12 +6207,12 @@
         <v>596091.852315931</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6308,12 +6246,12 @@
         <v>596091.852315931</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6347,12 +6285,12 @@
         <v>626989.3328159309</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6386,12 +6324,12 @@
         <v>625846.1081159309</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6425,12 +6363,12 @@
         <v>626893.978215931</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>32.23</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,12 +6402,12 @@
         <v>663784.2348159309</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>32.24</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6503,12 +6441,12 @@
         <v>663784.2348159309</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>32.58</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6542,12 +6480,12 @@
         <v>666767.656815931</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>32.58</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6581,12 +6519,12 @@
         <v>667625.519515931</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>32.76</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6620,12 +6558,12 @@
         <v>676461.603215931</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>32.93</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6662,7 +6600,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6696,17 +6636,19 @@
         <v>617159.978915931</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>1.00977377654663</v>
       </c>
       <c r="M181" t="inlineStr"/>
     </row>
@@ -6733,15 +6675,11 @@
         <v>636530.668515931</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6770,17 +6708,11 @@
         <v>636530.668515931</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>33.15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6809,17 +6741,11 @@
         <v>637268.201815931</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>33.15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6848,17 +6774,11 @@
         <v>613007.0031159311</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>33.26</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6891,11 +6811,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6928,11 +6844,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6965,11 +6877,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6998,17 +6906,11 @@
         <v>454412.6027159311</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>32.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7037,17 +6939,11 @@
         <v>454412.6027159311</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>32.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7076,17 +6972,11 @@
         <v>454444.2522159311</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>32.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7115,17 +7005,11 @@
         <v>396505.4246159311</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>32.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7154,17 +7038,11 @@
         <v>396444.131315931</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>32.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7193,17 +7071,11 @@
         <v>396444.131315931</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>32.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7232,17 +7104,11 @@
         <v>396444.131315931</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>32.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7271,17 +7137,11 @@
         <v>368213.9564846427</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>32.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7310,17 +7170,11 @@
         <v>337771.8576813288</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>32.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7349,17 +7203,11 @@
         <v>360838.3727467266</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>32.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7388,17 +7236,11 @@
         <v>370811.4055966501</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>32.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7427,17 +7269,11 @@
         <v>370811.4055966501</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>32.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7466,17 +7302,11 @@
         <v>370811.4055966501</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>32.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7505,17 +7335,11 @@
         <v>370811.4055966501</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>32.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7544,17 +7368,11 @@
         <v>372788.3716467266</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>32.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7583,17 +7401,11 @@
         <v>372788.3716467266</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>32.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7622,17 +7434,11 @@
         <v>372788.3716467266</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>32.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7665,11 +7471,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7702,11 +7504,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7739,11 +7537,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7776,11 +7570,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7813,11 +7603,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7850,11 +7636,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7887,11 +7669,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7920,17 +7698,11 @@
         <v>315548.6075100087</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>32.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7959,17 +7731,11 @@
         <v>249578.8772100087</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>32.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7998,17 +7764,11 @@
         <v>251253.7902100087</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>32.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8037,17 +7797,11 @@
         <v>251253.7902100087</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>32.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8076,17 +7830,11 @@
         <v>301238.1926100088</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>32.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8115,17 +7863,11 @@
         <v>301178.1926100088</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>32.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8154,17 +7896,11 @@
         <v>301178.1926100088</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>32.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8193,17 +7929,11 @@
         <v>301313.4739100087</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>32.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8232,17 +7962,11 @@
         <v>301313.4739100087</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>32.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8271,17 +7995,11 @@
         <v>301313.4739100087</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>32.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8310,17 +8028,11 @@
         <v>285313.4739100087</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>32.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8349,17 +8061,11 @@
         <v>285313.4739100087</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>32.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8388,17 +8094,11 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>32.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8427,17 +8127,11 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>32.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8466,17 +8160,11 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>32.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8505,17 +8193,11 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>32.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8544,17 +8226,11 @@
         <v>286977.5903100087</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>32.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8583,17 +8259,11 @@
         <v>280472.4679100087</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>32.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8622,17 +8292,11 @@
         <v>280478.2645100087</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>32.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8665,11 +8329,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8702,11 +8362,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8739,11 +8395,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8776,11 +8428,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8813,11 +8461,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8850,11 +8494,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8887,11 +8527,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8924,11 +8560,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8961,11 +8593,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +8626,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9035,11 +8659,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9072,11 +8692,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9109,11 +8725,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9146,11 +8758,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9183,11 +8791,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9220,11 +8824,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9257,11 +8857,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9294,11 +8890,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9327,15 +8919,11 @@
         <v>846777.4501094075</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9364,15 +8952,11 @@
         <v>848369.8682094075</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9401,15 +8985,11 @@
         <v>848310.9233094075</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9438,15 +9018,11 @@
         <v>848310.9233094075</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9475,15 +9051,11 @@
         <v>849620.4440094075</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9512,15 +9084,11 @@
         <v>824273.1514094075</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9549,15 +9117,11 @@
         <v>828017.1514094075</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9586,15 +9150,11 @@
         <v>828017.1514094075</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9623,15 +9183,11 @@
         <v>827442.2905094075</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9660,15 +9216,11 @@
         <v>827507.2905094075</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9697,15 +9249,11 @@
         <v>827213.6250094075</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9734,15 +9282,11 @@
         <v>807038.0239094076</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9771,15 +9315,11 @@
         <v>806935.6701094075</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9808,15 +9348,11 @@
         <v>726311.5502094075</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9849,11 +9385,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9886,11 +9418,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9923,11 +9451,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9960,11 +9484,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9997,11 +9517,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10034,11 +9550,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10071,11 +9583,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10108,11 +9616,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10141,15 +9645,11 @@
         <v>-1163112.300490593</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10178,15 +9678,11 @@
         <v>-1163112.300490593</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10215,15 +9711,11 @@
         <v>61027.70010940731</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10256,11 +9748,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10289,15 +9777,11 @@
         <v>59456.57420940731</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10326,15 +9810,11 @@
         <v>59707.57420940731</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10363,15 +9843,11 @@
         <v>31707.57420940731</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10400,15 +9876,11 @@
         <v>31722.57420940731</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10437,15 +9909,11 @@
         <v>41753.57420940731</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10474,15 +9942,11 @@
         <v>32865.78480940731</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10511,15 +9975,11 @@
         <v>32839.46760940731</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10548,15 +10008,11 @@
         <v>4542.371509407309</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10585,15 +10041,11 @@
         <v>5957.371509407309</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10622,15 +10074,11 @@
         <v>1104.577909407309</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10663,11 +10111,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10700,11 +10144,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10733,15 +10173,11 @@
         <v>239.1480094073086</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10774,11 +10210,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10811,11 +10243,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10848,11 +10276,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10885,11 +10309,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10922,11 +10342,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10955,15 +10371,11 @@
         <v>1718.870309407309</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10992,15 +10404,11 @@
         <v>1735.393709407309</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11029,15 +10437,11 @@
         <v>2208.393709407309</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11066,15 +10470,11 @@
         <v>108131.6237094073</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11103,15 +10503,11 @@
         <v>208131.6237094073</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11140,15 +10536,11 @@
         <v>222833.6237094073</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11181,11 +10573,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11218,11 +10606,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11255,11 +10639,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11292,11 +10672,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11329,11 +10705,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11366,11 +10738,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11403,11 +10771,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +10804,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11477,11 +10837,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11514,11 +10870,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11551,11 +10903,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11588,11 +10936,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11625,11 +10969,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11662,11 +11002,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11699,11 +11035,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11736,11 +11068,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11773,11 +11101,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11810,11 +11134,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11847,11 +11167,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11884,11 +11200,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11921,11 +11233,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11958,11 +11266,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11995,11 +11299,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12028,17 +11328,11 @@
         <v>-412208.3972993354</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>31.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12067,17 +11361,11 @@
         <v>-403107.1498993354</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>32.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12106,17 +11394,11 @@
         <v>-403107.1498993354</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>32.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12145,17 +11427,11 @@
         <v>-403107.1498993354</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>32.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12184,17 +11460,11 @@
         <v>-403107.1498993354</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>32.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12223,17 +11493,11 @@
         <v>-403107.1498993354</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>32.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12262,17 +11526,11 @@
         <v>-410459.6522993354</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>32.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12301,17 +11559,11 @@
         <v>-410443.6522993354</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>32.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12340,17 +11592,11 @@
         <v>-334823.5334993354</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>32.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12379,17 +11625,11 @@
         <v>-2336337.040999335</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>32.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12418,17 +11658,11 @@
         <v>-329135.0504993352</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>32.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12461,11 +11695,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12498,11 +11728,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12535,11 +11761,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12568,17 +11790,11 @@
         <v>9508183.34447458</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>32.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12611,11 +11827,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12644,15 +11856,11 @@
         <v>13078640.13187458</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12681,15 +11889,11 @@
         <v>11044227.94167458</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12718,15 +11922,11 @@
         <v>11046326.68837458</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12755,15 +11955,11 @@
         <v>11035911.62739897</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12796,11 +11992,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12833,11 +12025,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12870,11 +12058,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12907,11 +12091,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12944,11 +12124,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12981,11 +12157,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13018,11 +12190,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13055,11 +12223,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13092,11 +12256,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13129,11 +12289,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13166,11 +12322,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13203,11 +12355,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13240,11 +12388,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13277,11 +12421,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13314,11 +12454,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13351,11 +12487,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13388,11 +12520,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13425,11 +12553,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13462,11 +12586,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13499,11 +12619,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13536,11 +12652,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13573,11 +12685,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13610,11 +12718,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13647,11 +12751,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +12784,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13721,11 +12817,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13758,11 +12850,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13795,11 +12883,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13832,11 +12916,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13869,11 +12949,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13906,11 +12982,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13943,11 +13015,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13980,11 +13048,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14017,11 +13081,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14050,15 +13110,11 @@
         <v>10981617.9417047</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14091,11 +13147,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14124,15 +13176,11 @@
         <v>11129910.5712047</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14161,15 +13209,11 @@
         <v>11100694.7633047</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14202,11 +13246,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14239,11 +13279,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14276,11 +13312,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14313,11 +13345,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14350,11 +13378,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14387,11 +13411,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14424,11 +13444,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14461,11 +13477,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14498,11 +13510,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14535,11 +13543,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14572,11 +13576,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14609,11 +13609,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14642,16 +13638,14 @@
         <v>11115089.3029047</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
       <c r="M393" t="inlineStr"/>
     </row>
     <row r="394">
@@ -14743,7 +13737,7 @@
         <v>11189642.3765047</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15436,7 +14430,7 @@
         <v>11109515.65100854</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15469,7 +14463,7 @@
         <v>11109515.65100854</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15832,7 +14826,7 @@
         <v>11141286.87120854</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15865,7 +14859,7 @@
         <v>11141286.87120854</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15898,7 +14892,7 @@
         <v>11141295.87120854</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15931,7 +14925,7 @@
         <v>11140657.04755634</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15964,7 +14958,7 @@
         <v>11091547.13615634</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15997,7 +14991,7 @@
         <v>11091547.13615634</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16030,7 +15024,7 @@
         <v>11102299.91345634</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16063,7 +15057,7 @@
         <v>11099340.50175635</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16096,7 +15090,7 @@
         <v>11101463.38675635</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16129,7 +15123,7 @@
         <v>11101463.38675635</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16162,7 +15156,7 @@
         <v>11101417.40905635</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16195,7 +15189,7 @@
         <v>11101417.40905635</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16228,7 +15222,7 @@
         <v>11099010.96685635</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16261,7 +15255,7 @@
         <v>11059625.01805635</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16294,7 +15288,7 @@
         <v>10967432.90345635</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16327,7 +15321,7 @@
         <v>10946382.40175634</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16360,7 +15354,7 @@
         <v>10964556.05325634</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16393,7 +15387,7 @@
         <v>10963708.65845634</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16426,7 +15420,7 @@
         <v>10963723.65845634</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16459,7 +15453,7 @@
         <v>10962316.20075634</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16492,7 +15486,7 @@
         <v>10938940.37165635</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16525,7 +15519,7 @@
         <v>10938956.37165635</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16558,7 +15552,7 @@
         <v>10916606.22305634</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16591,7 +15585,7 @@
         <v>10916645.22305634</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16624,7 +15618,7 @@
         <v>11106645.22305634</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16657,7 +15651,7 @@
         <v>11105345.22305634</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16690,7 +15684,7 @@
         <v>11105361.22305634</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16723,7 +15717,7 @@
         <v>11106899.59095635</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16756,7 +15750,7 @@
         <v>11195660.22315635</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16789,7 +15783,7 @@
         <v>11207373.96775635</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16822,7 +15816,7 @@
         <v>11204630.34905635</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16855,7 +15849,7 @@
         <v>11104851.67705635</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16888,7 +15882,7 @@
         <v>11101851.67705635</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16921,7 +15915,7 @@
         <v>11101885.67705635</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16954,7 +15948,7 @@
         <v>11101851.67705635</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16987,7 +15981,7 @@
         <v>11119752.89075635</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17251,7 +16245,7 @@
         <v>16061343.32015635</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17350,7 +16344,7 @@
         <v>16109677.77215635</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17383,7 +16377,7 @@
         <v>16129677.77215635</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17416,7 +16410,7 @@
         <v>16069677.77215635</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17449,7 +16443,7 @@
         <v>16069692.77215635</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17482,7 +16476,7 @@
         <v>16069692.77215635</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17515,7 +16509,7 @@
         <v>15986921.31615635</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17548,7 +16542,7 @@
         <v>16037768.04112072</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17581,7 +16575,7 @@
         <v>16017095.56442072</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17614,7 +16608,7 @@
         <v>16092176.33782072</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17647,7 +16641,7 @@
         <v>16092176.33782072</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17680,7 +16674,7 @@
         <v>16068712.01052072</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17713,7 +16707,7 @@
         <v>16068712.01052072</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17746,7 +16740,7 @@
         <v>16486812.01052072</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17779,7 +16773,7 @@
         <v>16426584.82852072</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17812,7 +16806,7 @@
         <v>16427351.82852072</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17845,7 +16839,7 @@
         <v>16426077.66292072</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17878,7 +16872,7 @@
         <v>16409521.87582072</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17911,7 +16905,7 @@
         <v>16409537.79812072</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17944,7 +16938,7 @@
         <v>13559537.79812072</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17977,7 +16971,7 @@
         <v>17175851.17492072</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18076,7 +17070,7 @@
         <v>12636503.42212071</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18175,7 +17169,7 @@
         <v>12623291.71752072</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18208,7 +17202,7 @@
         <v>12623291.71752072</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18219,6 +17213,6 @@
       <c r="M501" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest FCT.xlsx
+++ b/BackTest/2020-01-15 BackTest FCT.xlsx
@@ -550,7 +550,7 @@
         <v>1527577.289</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1580655.4393</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1602717.6741</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1602579.4849</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1602627.4849</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1602571.5721</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1602553.1723</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1593794.6448</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1593794.6448</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1563723.3702</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1503609.6206</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1493970.9723</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1494066.1167</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1494066.1167</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1478859.6481</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1479779.279624473</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1483072.437815931</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1483072.437815931</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1483015.164015931</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1456126.870715931</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>834494.5195159311</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>823005.7101159311</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>823005.7101159311</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>857614.6226159311</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>857614.6226159311</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>857624.6226159311</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>840957.6455159311</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>833267.3182159311</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>784013.0401159311</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>784818.8942159311</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>784818.8942159311</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>785318.8942159311</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>717638.145815931</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>717638.145815931</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>717638.145815931</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>716345.5843159311</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>707671.6331159311</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>707671.6331159311</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>707671.6331159311</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>707671.6331159311</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>707671.6331159311</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>637496.612915931</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>637496.612915931</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>637496.612915931</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>635205.7518159311</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>632646.1570159311</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>532646.1570159311</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>532646.1570159311</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>531956.0880159311</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4939,14 +4939,10 @@
         <v>320638.6348159311</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="J138" t="n">
-        <v>32.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -4976,19 +4972,11 @@
         <v>308149.6401159311</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="J139" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5020,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +5071,10 @@
         <v>318020.4021159311</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="J142" t="n">
-        <v>32.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
@@ -5126,19 +5104,11 @@
         <v>318020.4021159311</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="J143" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5170,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5206,862 +5170,716 @@
         <v>299807.9827159311</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J145" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K145" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="C146" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="D146" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="E146" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="F146" t="n">
+        <v>22202.5912</v>
+      </c>
+      <c r="G146" t="n">
+        <v>277605.3915159311</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>32.37</v>
+      </c>
+      <c r="C147" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="D147" t="n">
+        <v>32.37</v>
+      </c>
+      <c r="E147" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="F147" t="n">
+        <v>22000.9705</v>
+      </c>
+      <c r="G147" t="n">
+        <v>277605.3915159311</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="C148" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="D148" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="E148" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4605.5057</v>
+      </c>
+      <c r="G148" t="n">
+        <v>272999.8858159311</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="C149" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="D149" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="E149" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7823.327</v>
+      </c>
+      <c r="G149" t="n">
+        <v>265176.5588159311</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="C150" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="D150" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="E150" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3839.578</v>
+      </c>
+      <c r="G150" t="n">
+        <v>261336.9808159311</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="C151" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="D151" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="E151" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2515.7455</v>
+      </c>
+      <c r="G151" t="n">
+        <v>258821.2353159311</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="C152" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="D152" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="E152" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="F152" t="n">
+        <v>22922.3203</v>
+      </c>
+      <c r="G152" t="n">
+        <v>258821.2353159311</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="C153" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="D153" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="E153" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="F153" t="n">
+        <v>22922.3204</v>
+      </c>
+      <c r="G153" t="n">
+        <v>235898.9149159311</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="C154" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="D154" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="E154" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6642.2482</v>
+      </c>
+      <c r="G154" t="n">
+        <v>235898.9149159311</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>32.24</v>
+      </c>
+      <c r="C155" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="D155" t="n">
+        <v>32.37</v>
+      </c>
+      <c r="E155" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="F155" t="n">
+        <v>13217.5007</v>
+      </c>
+      <c r="G155" t="n">
+        <v>235898.9149159311</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="C156" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="F156" t="n">
+        <v>53055.7063</v>
+      </c>
+      <c r="G156" t="n">
+        <v>288954.6212159311</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="D157" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>22170</v>
+      </c>
+      <c r="G157" t="n">
+        <v>311124.6212159311</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="C158" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="D158" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="E158" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="F158" t="n">
+        <v>68</v>
+      </c>
+      <c r="G158" t="n">
+        <v>311056.6212159311</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="C159" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="D159" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="E159" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="F159" t="n">
+        <v>60.8643</v>
+      </c>
+      <c r="G159" t="n">
+        <v>310995.7569159311</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="C160" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="D160" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="E160" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="F160" t="n">
+        <v>9645.2678</v>
+      </c>
+      <c r="G160" t="n">
+        <v>310995.7569159311</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="C161" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="D161" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="E161" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="F161" t="n">
+        <v>40461.5827</v>
+      </c>
+      <c r="G161" t="n">
+        <v>270534.1742159311</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>32.65</v>
+      </c>
+      <c r="C162" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="D162" t="n">
+        <v>32.65</v>
+      </c>
+      <c r="E162" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>267462.5852</v>
+      </c>
+      <c r="G162" t="n">
+        <v>537996.7594159311</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="C163" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="D163" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="E163" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="F163" t="n">
+        <v>123.8201</v>
+      </c>
+      <c r="G163" t="n">
+        <v>537872.9393159311</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="C164" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="D164" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="E164" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="F164" t="n">
+        <v>62.3441</v>
+      </c>
+      <c r="G164" t="n">
+        <v>537810.5952159311</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="C165" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="D165" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="E165" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3793.2017</v>
+      </c>
+      <c r="G165" t="n">
+        <v>534017.3935159311</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="J165" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="C166" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="D166" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="E166" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="F166" t="n">
+        <v>25868.6066</v>
+      </c>
+      <c r="G166" t="n">
+        <v>508148.7869159311</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="J166" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="C146" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="D146" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="E146" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="F146" t="n">
-        <v>22202.5912</v>
-      </c>
-      <c r="G146" t="n">
-        <v>277605.3915159311</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="J146" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>32.37</v>
-      </c>
-      <c r="C147" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="D147" t="n">
-        <v>32.37</v>
-      </c>
-      <c r="E147" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="F147" t="n">
-        <v>22000.9705</v>
-      </c>
-      <c r="G147" t="n">
-        <v>277605.3915159311</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="J147" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="C148" t="n">
-        <v>32.31</v>
-      </c>
-      <c r="D148" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="E148" t="n">
-        <v>32.31</v>
-      </c>
-      <c r="F148" t="n">
-        <v>4605.5057</v>
-      </c>
-      <c r="G148" t="n">
-        <v>272999.8858159311</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>32.36</v>
-      </c>
-      <c r="J148" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>32.31</v>
-      </c>
-      <c r="C149" t="n">
-        <v>32.27</v>
-      </c>
-      <c r="D149" t="n">
-        <v>32.31</v>
-      </c>
-      <c r="E149" t="n">
-        <v>32.27</v>
-      </c>
-      <c r="F149" t="n">
-        <v>7823.327</v>
-      </c>
-      <c r="G149" t="n">
-        <v>265176.5588159311</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>32.31</v>
-      </c>
-      <c r="J149" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>32.25</v>
-      </c>
-      <c r="C150" t="n">
-        <v>32.25</v>
-      </c>
-      <c r="D150" t="n">
-        <v>32.25</v>
-      </c>
-      <c r="E150" t="n">
-        <v>32.25</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3839.578</v>
-      </c>
-      <c r="G150" t="n">
-        <v>261336.9808159311</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>32.27</v>
-      </c>
-      <c r="J150" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>32.31</v>
-      </c>
-      <c r="C151" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="D151" t="n">
-        <v>32.31</v>
-      </c>
-      <c r="E151" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2515.7455</v>
-      </c>
-      <c r="G151" t="n">
-        <v>258821.2353159311</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>32.25</v>
-      </c>
-      <c r="J151" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="C152" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="D152" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="E152" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="F152" t="n">
-        <v>22922.3203</v>
-      </c>
-      <c r="G152" t="n">
-        <v>258821.2353159311</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="J152" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="C153" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="D153" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="E153" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="F153" t="n">
-        <v>22922.3204</v>
-      </c>
-      <c r="G153" t="n">
-        <v>235898.9149159311</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="J153" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="C154" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="D154" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="E154" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="F154" t="n">
-        <v>6642.2482</v>
-      </c>
-      <c r="G154" t="n">
-        <v>235898.9149159311</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="J154" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>32.24</v>
-      </c>
-      <c r="C155" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="D155" t="n">
-        <v>32.37</v>
-      </c>
-      <c r="E155" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="F155" t="n">
-        <v>13217.5007</v>
-      </c>
-      <c r="G155" t="n">
-        <v>235898.9149159311</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="J155" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="C156" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D156" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E156" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="F156" t="n">
-        <v>53055.7063</v>
-      </c>
-      <c r="G156" t="n">
-        <v>288954.6212159311</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="J156" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="C157" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="D157" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="E157" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>22170</v>
-      </c>
-      <c r="G157" t="n">
-        <v>311124.6212159311</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J157" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>32.99</v>
-      </c>
-      <c r="C158" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="D158" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="E158" t="n">
-        <v>32.99</v>
-      </c>
-      <c r="F158" t="n">
-        <v>68</v>
-      </c>
-      <c r="G158" t="n">
-        <v>311056.6212159311</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>32.86</v>
-      </c>
-      <c r="C159" t="n">
-        <v>32.86</v>
-      </c>
-      <c r="D159" t="n">
-        <v>32.86</v>
-      </c>
-      <c r="E159" t="n">
-        <v>32.86</v>
-      </c>
-      <c r="F159" t="n">
-        <v>60.8643</v>
-      </c>
-      <c r="G159" t="n">
-        <v>310995.7569159311</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>32.86</v>
-      </c>
-      <c r="C160" t="n">
-        <v>32.86</v>
-      </c>
-      <c r="D160" t="n">
-        <v>32.86</v>
-      </c>
-      <c r="E160" t="n">
-        <v>32.86</v>
-      </c>
-      <c r="F160" t="n">
-        <v>9645.2678</v>
-      </c>
-      <c r="G160" t="n">
-        <v>310995.7569159311</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>32.74</v>
-      </c>
-      <c r="C161" t="n">
-        <v>32.41</v>
-      </c>
-      <c r="D161" t="n">
-        <v>32.74</v>
-      </c>
-      <c r="E161" t="n">
-        <v>32.41</v>
-      </c>
-      <c r="F161" t="n">
-        <v>40461.5827</v>
-      </c>
-      <c r="G161" t="n">
-        <v>270534.1742159311</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>32.65</v>
-      </c>
-      <c r="C162" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="D162" t="n">
-        <v>32.65</v>
-      </c>
-      <c r="E162" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>267462.5852</v>
-      </c>
-      <c r="G162" t="n">
-        <v>537996.7594159311</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="C163" t="n">
-        <v>32.26</v>
-      </c>
-      <c r="D163" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="E163" t="n">
-        <v>32.26</v>
-      </c>
-      <c r="F163" t="n">
-        <v>123.8201</v>
-      </c>
-      <c r="G163" t="n">
-        <v>537872.9393159311</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="C164" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="D164" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="E164" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="F164" t="n">
-        <v>62.3441</v>
-      </c>
-      <c r="G164" t="n">
-        <v>537810.5952159311</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="C165" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="D165" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="E165" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="F165" t="n">
-        <v>3793.2017</v>
-      </c>
-      <c r="G165" t="n">
-        <v>534017.3935159311</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="C166" t="n">
-        <v>31.53</v>
-      </c>
-      <c r="D166" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="E166" t="n">
-        <v>31.53</v>
-      </c>
-      <c r="F166" t="n">
-        <v>25868.6066</v>
-      </c>
-      <c r="G166" t="n">
-        <v>508148.7869159311</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6090,11 +5908,13 @@
         <v>512013.3652159311</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>31.53</v>
+      </c>
       <c r="J167" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6129,11 +5949,13 @@
         <v>575477.186715931</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>31.71</v>
+      </c>
       <c r="J168" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6168,11 +5990,13 @@
         <v>584503.317415931</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>31.85</v>
+      </c>
       <c r="J169" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6207,11 +6031,13 @@
         <v>596091.852315931</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>32.08</v>
+      </c>
       <c r="J170" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6246,11 +6072,13 @@
         <v>596091.852315931</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>32.44</v>
+      </c>
       <c r="J171" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6285,11 +6113,13 @@
         <v>626989.3328159309</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>32.44</v>
+      </c>
       <c r="J172" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6324,11 +6154,13 @@
         <v>625846.1081159309</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>32.5</v>
+      </c>
       <c r="J173" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6363,11 +6195,13 @@
         <v>626893.978215931</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>32.23</v>
+      </c>
       <c r="J174" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6402,11 +6236,13 @@
         <v>663784.2348159309</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>32.24</v>
+      </c>
       <c r="J175" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6441,11 +6277,13 @@
         <v>663784.2348159309</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>32.58</v>
+      </c>
       <c r="J176" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6480,11 +6318,13 @@
         <v>666767.656815931</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>32.58</v>
+      </c>
       <c r="J177" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6519,11 +6359,13 @@
         <v>667625.519515931</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>32.76</v>
+      </c>
       <c r="J178" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6558,11 +6400,13 @@
         <v>676461.603215931</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>32.93</v>
+      </c>
       <c r="J179" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6597,11 +6441,13 @@
         <v>674325.769615931</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>33.38</v>
+      </c>
       <c r="J180" t="n">
-        <v>32.49</v>
+        <v>32.08</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6636,2298 +6482,2810 @@
         <v>617159.978915931</v>
       </c>
       <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="J181" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="C182" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="D182" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="E182" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19370.6896</v>
+      </c>
+      <c r="G182" t="n">
+        <v>636530.668515931</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="J182" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="C183" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="D183" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="E183" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="F183" t="n">
+        <v>432.4487</v>
+      </c>
+      <c r="G183" t="n">
+        <v>636530.668515931</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="J183" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="C184" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="D184" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="E184" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="F184" t="n">
+        <v>737.5333000000001</v>
+      </c>
+      <c r="G184" t="n">
+        <v>637268.201815931</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="J184" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="C185" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="D185" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="E185" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="F185" t="n">
+        <v>24261.1987</v>
+      </c>
+      <c r="G185" t="n">
+        <v>613007.0031159311</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="J185" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="C186" t="n">
+        <v>33</v>
+      </c>
+      <c r="D186" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="E186" t="n">
+        <v>33</v>
+      </c>
+      <c r="F186" t="n">
+        <v>94156.39539999999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>518850.6077159311</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="J186" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="C187" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="D187" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="F187" t="n">
+        <v>63834.8435</v>
+      </c>
+      <c r="G187" t="n">
+        <v>455015.7642159311</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>33</v>
+      </c>
+      <c r="J187" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="C188" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="D188" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="E188" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="F188" t="n">
+        <v>301.1149</v>
+      </c>
+      <c r="G188" t="n">
+        <v>454714.6493159311</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="J188" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="C189" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="D189" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="E189" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="F189" t="n">
+        <v>302.0466</v>
+      </c>
+      <c r="G189" t="n">
+        <v>454412.6027159311</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="J189" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="C190" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="D190" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="E190" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="F190" t="n">
+        <v>73.4537</v>
+      </c>
+      <c r="G190" t="n">
+        <v>454412.6027159311</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="J190" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="C191" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="D191" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="E191" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="F191" t="n">
+        <v>31.6495</v>
+      </c>
+      <c r="G191" t="n">
+        <v>454444.2522159311</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="J191" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="C192" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D192" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="E192" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F192" t="n">
+        <v>57938.8276</v>
+      </c>
+      <c r="G192" t="n">
+        <v>396505.4246159311</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="J192" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="C193" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="D193" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="E193" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="F193" t="n">
+        <v>61.2933</v>
+      </c>
+      <c r="G193" t="n">
+        <v>396444.131315931</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J193" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="C194" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="D194" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="E194" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="F194" t="n">
+        <v>7708.8449</v>
+      </c>
+      <c r="G194" t="n">
+        <v>396444.131315931</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="J194" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="C195" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="D195" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="E195" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20429.5859</v>
+      </c>
+      <c r="G195" t="n">
+        <v>396444.131315931</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="J195" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="C196" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>28230.17483128834</v>
+      </c>
+      <c r="G196" t="n">
+        <v>368213.9564846427</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="J196" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C197" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="D197" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="E197" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="F197" t="n">
+        <v>30442.0988033139</v>
+      </c>
+      <c r="G197" t="n">
+        <v>337771.8576813288</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J197" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="C198" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E198" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="F198" t="n">
+        <v>23066.51506539776</v>
+      </c>
+      <c r="G198" t="n">
+        <v>360838.3727467266</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="J198" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="C199" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="D199" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="E199" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="F199" t="n">
+        <v>9973.032849923524</v>
+      </c>
+      <c r="G199" t="n">
+        <v>370811.4055966501</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J199" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="C200" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="D200" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="E200" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="F200" t="n">
+        <v>95.01545007647599</v>
+      </c>
+      <c r="G200" t="n">
+        <v>370811.4055966501</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="J200" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="C201" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="D201" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="E201" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="F201" t="n">
+        <v>13500</v>
+      </c>
+      <c r="G201" t="n">
+        <v>370811.4055966501</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="J201" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="C202" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="D202" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="E202" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="F202" t="n">
+        <v>10901.20904992352</v>
+      </c>
+      <c r="G202" t="n">
+        <v>370811.4055966501</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="J202" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="C203" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D203" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E203" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1976.966050076476</v>
+      </c>
+      <c r="G203" t="n">
+        <v>372788.3716467266</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="J203" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C204" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D204" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E204" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2781.4443</v>
+      </c>
+      <c r="G204" t="n">
+        <v>372788.3716467266</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J204" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C205" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D205" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E205" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F205" t="n">
+        <v>6250.1678</v>
+      </c>
+      <c r="G205" t="n">
+        <v>372788.3716467266</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J205" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="C206" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="D206" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="E206" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="F206" t="n">
+        <v>10067.7966</v>
+      </c>
+      <c r="G206" t="n">
+        <v>382856.1682467266</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J206" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="C207" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="D207" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="E207" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="F207" t="n">
+        <v>10400</v>
+      </c>
+      <c r="G207" t="n">
+        <v>393256.1682467266</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="J207" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="C208" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="D208" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="E208" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="F208" t="n">
+        <v>20000.6985</v>
+      </c>
+      <c r="G208" t="n">
+        <v>373255.4697467266</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="J208" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="C209" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="D209" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="E209" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="F209" t="n">
+        <v>31.8429</v>
+      </c>
+      <c r="G209" t="n">
+        <v>373287.3126467266</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="J209" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="C210" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="D210" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="E210" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="F210" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>363287.3126467266</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="J210" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="C211" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D211" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="E211" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F211" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>353287.3126467266</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="J211" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C212" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D212" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E212" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1455</v>
+      </c>
+      <c r="G212" t="n">
+        <v>353287.3126467266</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J212" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C213" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D213" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E213" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F213" t="n">
+        <v>37738.70513671779</v>
+      </c>
+      <c r="G213" t="n">
+        <v>315548.6075100087</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J213" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C214" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D214" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E214" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F214" t="n">
+        <v>65969.7303</v>
+      </c>
+      <c r="G214" t="n">
+        <v>249578.8772100087</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="J214" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C215" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="D215" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E215" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1674.913</v>
+      </c>
+      <c r="G215" t="n">
+        <v>251253.7902100087</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="J215" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="C216" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="D216" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="E216" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="F216" t="n">
+        <v>18</v>
+      </c>
+      <c r="G216" t="n">
+        <v>251253.7902100087</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="J216" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C217" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="D217" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="E217" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F217" t="n">
+        <v>49984.4024</v>
+      </c>
+      <c r="G217" t="n">
+        <v>301238.1926100088</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="J217" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C218" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E218" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F218" t="n">
+        <v>60</v>
+      </c>
+      <c r="G218" t="n">
+        <v>301178.1926100088</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="J218" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C219" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>33.37</v>
+      </c>
+      <c r="E219" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F219" t="n">
+        <v>28417.34848699431</v>
+      </c>
+      <c r="G219" t="n">
+        <v>301178.1926100088</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J219" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="C220" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="D220" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="E220" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="F220" t="n">
+        <v>135.2813</v>
+      </c>
+      <c r="G220" t="n">
+        <v>301313.4739100087</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J220" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="C221" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="D221" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="E221" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="F221" t="n">
+        <v>4343.4322</v>
+      </c>
+      <c r="G221" t="n">
+        <v>301313.4739100087</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="J221" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="C222" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="D222" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="E222" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="F222" t="n">
+        <v>4531.862</v>
+      </c>
+      <c r="G222" t="n">
+        <v>301313.4739100087</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="J222" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="C223" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D223" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="E223" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F223" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G223" t="n">
+        <v>285313.4739100087</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="J223" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C224" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D224" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E224" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F224" t="n">
+        <v>42233.0909</v>
+      </c>
+      <c r="G224" t="n">
+        <v>285313.4739100087</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J224" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C225" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D225" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E225" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1602.1164</v>
+      </c>
+      <c r="G225" t="n">
+        <v>286915.5903100087</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J225" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="C226" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D226" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E226" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2537</v>
+      </c>
+      <c r="G226" t="n">
+        <v>286915.5903100087</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J226" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C227" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D227" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E227" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F227" t="n">
+        <v>36</v>
+      </c>
+      <c r="G227" t="n">
+        <v>286915.5903100087</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J227" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C228" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D228" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E228" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F228" t="n">
+        <v>14095.5159</v>
+      </c>
+      <c r="G228" t="n">
+        <v>286915.5903100087</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J228" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="C229" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="D229" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="E229" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="F229" t="n">
+        <v>62</v>
+      </c>
+      <c r="G229" t="n">
+        <v>286977.5903100087</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="C230" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="D230" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="E230" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="F230" t="n">
+        <v>6505.1224</v>
+      </c>
+      <c r="G230" t="n">
+        <v>280472.4679100087</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="C231" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="D231" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="E231" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="F231" t="n">
+        <v>5.7966</v>
+      </c>
+      <c r="G231" t="n">
+        <v>280478.2645100087</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="C232" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="D232" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="E232" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="F232" t="n">
+        <v>3040.2506</v>
+      </c>
+      <c r="G232" t="n">
+        <v>283518.5151100088</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="C233" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="D233" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="E233" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G233" t="n">
+        <v>282518.5151100088</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="C234" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="D234" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="E234" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F234" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G234" t="n">
+        <v>522518.5151100088</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="C235" t="n">
+        <v>33.37</v>
+      </c>
+      <c r="D235" t="n">
+        <v>33.37</v>
+      </c>
+      <c r="E235" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="F235" t="n">
+        <v>4300</v>
+      </c>
+      <c r="G235" t="n">
+        <v>526818.5151100088</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="C236" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="D236" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="E236" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="F236" t="n">
+        <v>156.3079</v>
+      </c>
+      <c r="G236" t="n">
+        <v>526662.2072100088</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="C237" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="D237" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="E237" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="F237" t="n">
+        <v>15.824</v>
+      </c>
+      <c r="G237" t="n">
+        <v>526646.3832100087</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="C238" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="D238" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="E238" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="F238" t="n">
+        <v>18154.0611</v>
+      </c>
+      <c r="G238" t="n">
+        <v>544800.4443100088</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="C239" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="D239" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="E239" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="F239" t="n">
+        <v>210.9644993988578</v>
+      </c>
+      <c r="G239" t="n">
+        <v>545011.4088094076</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="C240" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="D240" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="E240" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="F240" t="n">
+        <v>217.4313</v>
+      </c>
+      <c r="G240" t="n">
+        <v>544793.9775094076</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>33</v>
+      </c>
+      <c r="C241" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="D241" t="n">
+        <v>33</v>
+      </c>
+      <c r="E241" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="F241" t="n">
+        <v>18852.6458</v>
+      </c>
+      <c r="G241" t="n">
+        <v>525941.3317094075</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="C242" t="n">
+        <v>33</v>
+      </c>
+      <c r="D242" t="n">
+        <v>33</v>
+      </c>
+      <c r="E242" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="F242" t="n">
+        <v>15995.8796</v>
+      </c>
+      <c r="G242" t="n">
+        <v>541937.2113094075</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="C243" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="D243" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="E243" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2848.3656</v>
+      </c>
+      <c r="G243" t="n">
+        <v>544785.5769094075</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>33</v>
+      </c>
+      <c r="C244" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="D244" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="E244" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F244" t="n">
+        <v>47500</v>
+      </c>
+      <c r="G244" t="n">
+        <v>592285.5769094075</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="C245" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="D245" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="E245" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="F245" t="n">
+        <v>66.9915</v>
+      </c>
+      <c r="G245" t="n">
+        <v>592218.5854094075</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="C246" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D246" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="E246" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="F246" t="n">
+        <v>67</v>
+      </c>
+      <c r="G246" t="n">
+        <v>592285.5854094075</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="C247" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>33</v>
+      </c>
+      <c r="F247" t="n">
+        <v>11016</v>
+      </c>
+      <c r="G247" t="n">
+        <v>581269.5854094075</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>33</v>
+      </c>
+      <c r="C248" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D248" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E248" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="F248" t="n">
+        <v>270000</v>
+      </c>
+      <c r="G248" t="n">
+        <v>851269.5854094075</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="C249" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D249" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E249" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3289.6018</v>
+      </c>
+      <c r="G249" t="n">
+        <v>851269.5854094075</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="C250" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="D250" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="E250" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="F250" t="n">
+        <v>4492.1353</v>
+      </c>
+      <c r="G250" t="n">
+        <v>846777.4501094075</v>
+      </c>
+      <c r="H250" t="n">
         <v>2</v>
       </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K181" t="inlineStr">
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1.00977377654663</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>32.97</v>
-      </c>
-      <c r="C182" t="n">
-        <v>33.15</v>
-      </c>
-      <c r="D182" t="n">
-        <v>33.15</v>
-      </c>
-      <c r="E182" t="n">
-        <v>32.97</v>
-      </c>
-      <c r="F182" t="n">
-        <v>19370.6896</v>
-      </c>
-      <c r="G182" t="n">
-        <v>636530.668515931</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>32.99</v>
-      </c>
-      <c r="C183" t="n">
-        <v>33.15</v>
-      </c>
-      <c r="D183" t="n">
-        <v>33.15</v>
-      </c>
-      <c r="E183" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="F183" t="n">
-        <v>432.4487</v>
-      </c>
-      <c r="G183" t="n">
-        <v>636530.668515931</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>33.26</v>
-      </c>
-      <c r="C184" t="n">
-        <v>33.26</v>
-      </c>
-      <c r="D184" t="n">
-        <v>33.26</v>
-      </c>
-      <c r="E184" t="n">
-        <v>33.26</v>
-      </c>
-      <c r="F184" t="n">
-        <v>737.5333000000001</v>
-      </c>
-      <c r="G184" t="n">
-        <v>637268.201815931</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>33.26</v>
-      </c>
-      <c r="C185" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="D185" t="n">
-        <v>33.26</v>
-      </c>
-      <c r="E185" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="F185" t="n">
-        <v>24261.1987</v>
-      </c>
-      <c r="G185" t="n">
-        <v>613007.0031159311</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="C186" t="n">
-        <v>33</v>
-      </c>
-      <c r="D186" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="E186" t="n">
-        <v>33</v>
-      </c>
-      <c r="F186" t="n">
-        <v>94156.39539999999</v>
-      </c>
-      <c r="G186" t="n">
-        <v>518850.6077159311</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>33.01</v>
-      </c>
-      <c r="C187" t="n">
-        <v>32.99</v>
-      </c>
-      <c r="D187" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E187" t="n">
-        <v>32.99</v>
-      </c>
-      <c r="F187" t="n">
-        <v>63834.8435</v>
-      </c>
-      <c r="G187" t="n">
-        <v>455015.7642159311</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="C188" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="D188" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="E188" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="F188" t="n">
-        <v>301.1149</v>
-      </c>
-      <c r="G188" t="n">
-        <v>454714.6493159311</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>32.79</v>
-      </c>
-      <c r="C189" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="D189" t="n">
-        <v>32.79</v>
-      </c>
-      <c r="E189" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="F189" t="n">
-        <v>302.0466</v>
-      </c>
-      <c r="G189" t="n">
-        <v>454412.6027159311</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="C190" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="D190" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="E190" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="F190" t="n">
-        <v>73.4537</v>
-      </c>
-      <c r="G190" t="n">
-        <v>454412.6027159311</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="C191" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="D191" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="E191" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="F191" t="n">
-        <v>31.6495</v>
-      </c>
-      <c r="G191" t="n">
-        <v>454444.2522159311</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="C192" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D192" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="E192" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F192" t="n">
-        <v>57938.8276</v>
-      </c>
-      <c r="G192" t="n">
-        <v>396505.4246159311</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="C193" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="D193" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="E193" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="F193" t="n">
-        <v>61.2933</v>
-      </c>
-      <c r="G193" t="n">
-        <v>396444.131315931</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="C194" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="D194" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="E194" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="F194" t="n">
-        <v>7708.8449</v>
-      </c>
-      <c r="G194" t="n">
-        <v>396444.131315931</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="C195" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="D195" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="E195" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="F195" t="n">
-        <v>20429.5859</v>
-      </c>
-      <c r="G195" t="n">
-        <v>396444.131315931</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>32.51</v>
-      </c>
-      <c r="C196" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D196" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E196" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F196" t="n">
-        <v>28230.17483128834</v>
-      </c>
-      <c r="G196" t="n">
-        <v>368213.9564846427</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>32.45</v>
-      </c>
-      <c r="C197" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="D197" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="E197" t="n">
-        <v>32.43</v>
-      </c>
-      <c r="F197" t="n">
-        <v>30442.0988033139</v>
-      </c>
-      <c r="G197" t="n">
-        <v>337771.8576813288</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="C198" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D198" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E198" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="F198" t="n">
-        <v>23066.51506539776</v>
-      </c>
-      <c r="G198" t="n">
-        <v>360838.3727467266</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>32.61</v>
-      </c>
-      <c r="C199" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="D199" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="E199" t="n">
-        <v>32.61</v>
-      </c>
-      <c r="F199" t="n">
-        <v>9973.032849923524</v>
-      </c>
-      <c r="G199" t="n">
-        <v>370811.4055966501</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="C200" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="D200" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="E200" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="F200" t="n">
-        <v>95.01545007647599</v>
-      </c>
-      <c r="G200" t="n">
-        <v>370811.4055966501</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="C201" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="D201" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="E201" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="F201" t="n">
-        <v>13500</v>
-      </c>
-      <c r="G201" t="n">
-        <v>370811.4055966501</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="C202" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="D202" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="E202" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="F202" t="n">
-        <v>10901.20904992352</v>
-      </c>
-      <c r="G202" t="n">
-        <v>370811.4055966501</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="C203" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D203" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E203" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1976.966050076476</v>
-      </c>
-      <c r="G203" t="n">
-        <v>372788.3716467266</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C204" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D204" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E204" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2781.4443</v>
-      </c>
-      <c r="G204" t="n">
-        <v>372788.3716467266</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C205" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D205" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E205" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F205" t="n">
-        <v>6250.1678</v>
-      </c>
-      <c r="G205" t="n">
-        <v>372788.3716467266</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="C206" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="D206" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="E206" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="F206" t="n">
-        <v>10067.7966</v>
-      </c>
-      <c r="G206" t="n">
-        <v>382856.1682467266</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="C207" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="D207" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="E207" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="F207" t="n">
-        <v>10400</v>
-      </c>
-      <c r="G207" t="n">
-        <v>393256.1682467266</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="C208" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="D208" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="E208" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="F208" t="n">
-        <v>20000.6985</v>
-      </c>
-      <c r="G208" t="n">
-        <v>373255.4697467266</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="C209" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="D209" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="E209" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="F209" t="n">
-        <v>31.8429</v>
-      </c>
-      <c r="G209" t="n">
-        <v>373287.3126467266</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="C210" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="D210" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="E210" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="F210" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G210" t="n">
-        <v>363287.3126467266</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="C211" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D211" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="E211" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F211" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G211" t="n">
-        <v>353287.3126467266</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C212" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D212" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E212" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1455</v>
-      </c>
-      <c r="G212" t="n">
-        <v>353287.3126467266</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C213" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D213" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E213" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F213" t="n">
-        <v>37738.70513671779</v>
-      </c>
-      <c r="G213" t="n">
-        <v>315548.6075100087</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C214" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D214" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E214" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F214" t="n">
-        <v>65969.7303</v>
-      </c>
-      <c r="G214" t="n">
-        <v>249578.8772100087</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C215" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="D215" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E215" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1674.913</v>
-      </c>
-      <c r="G215" t="n">
-        <v>251253.7902100087</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="C216" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="D216" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="E216" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="F216" t="n">
-        <v>18</v>
-      </c>
-      <c r="G216" t="n">
-        <v>251253.7902100087</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C217" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="D217" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="E217" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F217" t="n">
-        <v>49984.4024</v>
-      </c>
-      <c r="G217" t="n">
-        <v>301238.1926100088</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="C218" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D218" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E218" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F218" t="n">
-        <v>60</v>
-      </c>
-      <c r="G218" t="n">
-        <v>301178.1926100088</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C219" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D219" t="n">
-        <v>33.37</v>
-      </c>
-      <c r="E219" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F219" t="n">
-        <v>28417.34848699431</v>
-      </c>
-      <c r="G219" t="n">
-        <v>301178.1926100088</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="C220" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="D220" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="E220" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="F220" t="n">
-        <v>135.2813</v>
-      </c>
-      <c r="G220" t="n">
-        <v>301313.4739100087</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="C221" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="D221" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="E221" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="F221" t="n">
-        <v>4343.4322</v>
-      </c>
-      <c r="G221" t="n">
-        <v>301313.4739100087</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="C222" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="D222" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="E222" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="F222" t="n">
-        <v>4531.862</v>
-      </c>
-      <c r="G222" t="n">
-        <v>301313.4739100087</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="C223" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D223" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="E223" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F223" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G223" t="n">
-        <v>285313.4739100087</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="C224" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D224" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E224" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F224" t="n">
-        <v>42233.0909</v>
-      </c>
-      <c r="G224" t="n">
-        <v>285313.4739100087</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C225" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D225" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E225" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1602.1164</v>
-      </c>
-      <c r="G225" t="n">
-        <v>286915.5903100087</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>32.62</v>
-      </c>
-      <c r="C226" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D226" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E226" t="n">
-        <v>32.62</v>
-      </c>
-      <c r="F226" t="n">
-        <v>2537</v>
-      </c>
-      <c r="G226" t="n">
-        <v>286915.5903100087</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C227" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D227" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E227" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F227" t="n">
-        <v>36</v>
-      </c>
-      <c r="G227" t="n">
-        <v>286915.5903100087</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C228" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D228" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E228" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F228" t="n">
-        <v>14095.5159</v>
-      </c>
-      <c r="G228" t="n">
-        <v>286915.5903100087</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="C229" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="D229" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="E229" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="F229" t="n">
-        <v>62</v>
-      </c>
-      <c r="G229" t="n">
-        <v>286977.5903100087</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="C230" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="D230" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="E230" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="F230" t="n">
-        <v>6505.1224</v>
-      </c>
-      <c r="G230" t="n">
-        <v>280472.4679100087</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="C231" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="D231" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="E231" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="F231" t="n">
-        <v>5.7966</v>
-      </c>
-      <c r="G231" t="n">
-        <v>280478.2645100087</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>32.81</v>
-      </c>
-      <c r="C232" t="n">
-        <v>32.81</v>
-      </c>
-      <c r="D232" t="n">
-        <v>32.81</v>
-      </c>
-      <c r="E232" t="n">
-        <v>32.81</v>
-      </c>
-      <c r="F232" t="n">
-        <v>3040.2506</v>
-      </c>
-      <c r="G232" t="n">
-        <v>283518.5151100088</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="C233" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="D233" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="E233" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="F233" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G233" t="n">
-        <v>282518.5151100088</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="C234" t="n">
-        <v>33.36</v>
-      </c>
-      <c r="D234" t="n">
-        <v>33.36</v>
-      </c>
-      <c r="E234" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F234" t="n">
-        <v>240000</v>
-      </c>
-      <c r="G234" t="n">
-        <v>522518.5151100088</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="C235" t="n">
-        <v>33.37</v>
-      </c>
-      <c r="D235" t="n">
-        <v>33.37</v>
-      </c>
-      <c r="E235" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="F235" t="n">
-        <v>4300</v>
-      </c>
-      <c r="G235" t="n">
-        <v>526818.5151100088</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>32.96</v>
-      </c>
-      <c r="C236" t="n">
-        <v>33.36</v>
-      </c>
-      <c r="D236" t="n">
-        <v>33.36</v>
-      </c>
-      <c r="E236" t="n">
-        <v>32.96</v>
-      </c>
-      <c r="F236" t="n">
-        <v>156.3079</v>
-      </c>
-      <c r="G236" t="n">
-        <v>526662.2072100088</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>32.85</v>
-      </c>
-      <c r="C237" t="n">
-        <v>32.85</v>
-      </c>
-      <c r="D237" t="n">
-        <v>32.85</v>
-      </c>
-      <c r="E237" t="n">
-        <v>32.85</v>
-      </c>
-      <c r="F237" t="n">
-        <v>15.824</v>
-      </c>
-      <c r="G237" t="n">
-        <v>526646.3832100087</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>32.95</v>
-      </c>
-      <c r="C238" t="n">
-        <v>32.94</v>
-      </c>
-      <c r="D238" t="n">
-        <v>32.95</v>
-      </c>
-      <c r="E238" t="n">
-        <v>32.94</v>
-      </c>
-      <c r="F238" t="n">
-        <v>18154.0611</v>
-      </c>
-      <c r="G238" t="n">
-        <v>544800.4443100088</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>33.13</v>
-      </c>
-      <c r="C239" t="n">
-        <v>33.27</v>
-      </c>
-      <c r="D239" t="n">
-        <v>33.27</v>
-      </c>
-      <c r="E239" t="n">
-        <v>33.13</v>
-      </c>
-      <c r="F239" t="n">
-        <v>210.9644993988578</v>
-      </c>
-      <c r="G239" t="n">
-        <v>545011.4088094076</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>33.01</v>
-      </c>
-      <c r="C240" t="n">
-        <v>33.01</v>
-      </c>
-      <c r="D240" t="n">
-        <v>33.01</v>
-      </c>
-      <c r="E240" t="n">
-        <v>33.01</v>
-      </c>
-      <c r="F240" t="n">
-        <v>217.4313</v>
-      </c>
-      <c r="G240" t="n">
-        <v>544793.9775094076</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>33</v>
-      </c>
-      <c r="C241" t="n">
-        <v>32.99</v>
-      </c>
-      <c r="D241" t="n">
-        <v>33</v>
-      </c>
-      <c r="E241" t="n">
-        <v>32.99</v>
-      </c>
-      <c r="F241" t="n">
-        <v>18852.6458</v>
-      </c>
-      <c r="G241" t="n">
-        <v>525941.3317094075</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>32.99</v>
-      </c>
-      <c r="C242" t="n">
-        <v>33</v>
-      </c>
-      <c r="D242" t="n">
-        <v>33</v>
-      </c>
-      <c r="E242" t="n">
-        <v>32.99</v>
-      </c>
-      <c r="F242" t="n">
-        <v>15995.8796</v>
-      </c>
-      <c r="G242" t="n">
-        <v>541937.2113094075</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>33.01</v>
-      </c>
-      <c r="C243" t="n">
-        <v>33.17</v>
-      </c>
-      <c r="D243" t="n">
-        <v>33.17</v>
-      </c>
-      <c r="E243" t="n">
-        <v>33.01</v>
-      </c>
-      <c r="F243" t="n">
-        <v>2848.3656</v>
-      </c>
-      <c r="G243" t="n">
-        <v>544785.5769094075</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>33</v>
-      </c>
-      <c r="C244" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="D244" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="E244" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F244" t="n">
-        <v>47500</v>
-      </c>
-      <c r="G244" t="n">
-        <v>592285.5769094075</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="C245" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="D245" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="E245" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="F245" t="n">
-        <v>66.9915</v>
-      </c>
-      <c r="G245" t="n">
-        <v>592218.5854094075</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>33.27</v>
-      </c>
-      <c r="C246" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="D246" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="E246" t="n">
-        <v>33.27</v>
-      </c>
-      <c r="F246" t="n">
-        <v>67</v>
-      </c>
-      <c r="G246" t="n">
-        <v>592285.5854094075</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="C247" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D247" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E247" t="n">
-        <v>33</v>
-      </c>
-      <c r="F247" t="n">
-        <v>11016</v>
-      </c>
-      <c r="G247" t="n">
-        <v>581269.5854094075</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>33</v>
-      </c>
-      <c r="C248" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D248" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E248" t="n">
-        <v>32.85</v>
-      </c>
-      <c r="F248" t="n">
-        <v>270000</v>
-      </c>
-      <c r="G248" t="n">
-        <v>851269.5854094075</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="C249" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D249" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E249" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="F249" t="n">
-        <v>3289.6018</v>
-      </c>
-      <c r="G249" t="n">
-        <v>851269.5854094075</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>33.94</v>
-      </c>
-      <c r="C250" t="n">
-        <v>33.94</v>
-      </c>
-      <c r="D250" t="n">
-        <v>33.94</v>
-      </c>
-      <c r="E250" t="n">
-        <v>33.94</v>
-      </c>
-      <c r="F250" t="n">
-        <v>4492.1353</v>
-      </c>
-      <c r="G250" t="n">
-        <v>846777.4501094075</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>1.052980049875312</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1.15047619047619</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9051,7 +9409,7 @@
         <v>849620.4440094075</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9084,7 +9442,7 @@
         <v>824273.1514094075</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9117,7 +9475,7 @@
         <v>828017.1514094075</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9150,7 +9508,7 @@
         <v>828017.1514094075</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9183,7 +9541,7 @@
         <v>827442.2905094075</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9216,7 +9574,7 @@
         <v>827507.2905094075</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9249,7 +9607,7 @@
         <v>827213.6250094075</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9282,7 +9640,7 @@
         <v>807038.0239094076</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9315,7 +9673,7 @@
         <v>806935.6701094075</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9348,7 +9706,7 @@
         <v>726311.5502094075</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9645,7 +10003,7 @@
         <v>-1163112.300490593</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9678,7 +10036,7 @@
         <v>-1163112.300490593</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9711,7 +10069,7 @@
         <v>61027.70010940731</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9777,7 +10135,7 @@
         <v>59456.57420940731</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9810,7 +10168,7 @@
         <v>59707.57420940731</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9843,7 +10201,7 @@
         <v>31707.57420940731</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9876,7 +10234,7 @@
         <v>31722.57420940731</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9909,7 +10267,7 @@
         <v>41753.57420940731</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9942,7 +10300,7 @@
         <v>32865.78480940731</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9975,7 +10333,7 @@
         <v>32839.46760940731</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10008,7 +10366,7 @@
         <v>4542.371509407309</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10041,7 +10399,7 @@
         <v>5957.371509407309</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10074,7 +10432,7 @@
         <v>1104.577909407309</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10173,7 +10531,7 @@
         <v>239.1480094073086</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10371,7 +10729,7 @@
         <v>1718.870309407309</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10404,7 +10762,7 @@
         <v>1735.393709407309</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10437,7 +10795,7 @@
         <v>2208.393709407309</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10470,7 +10828,7 @@
         <v>108131.6237094073</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10503,7 +10861,7 @@
         <v>208131.6237094073</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10536,7 +10894,7 @@
         <v>222833.6237094073</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10899,7 +11257,7 @@
         <v>418704.3789863127</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11856,7 +12214,7 @@
         <v>13078640.13187458</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11889,7 +12247,7 @@
         <v>11044227.94167458</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11922,7 +12280,7 @@
         <v>11046326.68837458</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11955,7 +12313,7 @@
         <v>11035911.62739897</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13110,7 +13468,7 @@
         <v>10981617.9417047</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13176,7 +13534,7 @@
         <v>11129910.5712047</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13209,7 +13567,7 @@
         <v>11100694.7633047</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13671,7 +14029,7 @@
         <v>11128428.1533047</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13704,7 +14062,7 @@
         <v>11142346.0147047</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14430,7 +14788,7 @@
         <v>11109515.65100854</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14463,7 +14821,7 @@
         <v>11109515.65100854</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14826,7 +15184,7 @@
         <v>11141286.87120854</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14859,7 +15217,7 @@
         <v>11141286.87120854</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14892,7 +15250,7 @@
         <v>11141295.87120854</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14925,7 +15283,7 @@
         <v>11140657.04755634</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14958,7 +15316,7 @@
         <v>11091547.13615634</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14991,7 +15349,7 @@
         <v>11091547.13615634</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15024,7 +15382,7 @@
         <v>11102299.91345634</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15057,7 +15415,7 @@
         <v>11099340.50175635</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15090,7 +15448,7 @@
         <v>11101463.38675635</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15123,7 +15481,7 @@
         <v>11101463.38675635</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15156,7 +15514,7 @@
         <v>11101417.40905635</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15189,7 +15547,7 @@
         <v>11101417.40905635</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15222,7 +15580,7 @@
         <v>11099010.96685635</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15255,7 +15613,7 @@
         <v>11059625.01805635</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15288,7 +15646,7 @@
         <v>10967432.90345635</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15321,7 +15679,7 @@
         <v>10946382.40175634</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15354,7 +15712,7 @@
         <v>10964556.05325634</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15387,7 +15745,7 @@
         <v>10963708.65845634</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17004,7 +17362,7 @@
         <v>12668800.00122071</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17037,7 +17395,7 @@
         <v>12664809.06672071</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17103,7 +17461,7 @@
         <v>12639659.47762072</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17136,7 +17494,7 @@
         <v>12617196.25152072</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
